--- a/Лабораторная работа 5/Таблица требований.xlsx
+++ b/Лабораторная работа 5/Таблица требований.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/Университет/Программная инженерия/Лабораторная работа 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A859BA3-9D5E-F040-B31B-0CC3DC14C8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACAADF0-FF2C-EB42-B2AD-3A1C3CF89C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{BE9B1B26-4820-4D4C-B781-40DC7AFFABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>Роль</t>
   </si>
@@ -54,12 +54,6 @@
     <t>функциональное</t>
   </si>
   <si>
-    <t>срочно</t>
-  </si>
-  <si>
-    <t>не срочно</t>
-  </si>
-  <si>
     <t>Реализация отдельной страницы авторизации</t>
   </si>
   <si>
@@ -169,15 +163,6 @@
   </si>
   <si>
     <t>Важность</t>
-  </si>
-  <si>
-    <t>важно</t>
-  </si>
-  <si>
-    <t>средне</t>
-  </si>
-  <si>
-    <t>не важно</t>
   </si>
 </sst>
 </file>
@@ -234,13 +219,13 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +244,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -357,21 +348,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -511,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -542,68 +518,65 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,7 +895,7 @@
   <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,628 +920,660 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>18</v>
+    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="21">
+        <f>D2*E2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" ref="F3:F33" si="0">D3*E3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
       <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="32">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="2" t="s">
+    <row r="10" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>25</v>
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
       <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="33">
-        <v>1</v>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>33</v>
+      <c r="A20" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="32">
-        <v>6</v>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="C26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="13">
+        <v>3</v>
+      </c>
+      <c r="E26" s="13">
+        <v>2</v>
+      </c>
+      <c r="F26" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="C27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
+      <c r="B28" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="32">
-        <v>2</v>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="15">
+        <v>3</v>
+      </c>
+      <c r="E29" s="15">
+        <v>2</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A30" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="18" t="s">
-        <v>42</v>
+      <c r="D30" s="8">
+        <v>3</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2</v>
+      </c>
+      <c r="F30" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="18" t="s">
-        <v>43</v>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="20" t="s">
-        <v>44</v>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="33">
-        <v>6</v>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>7</v>
+      <c r="C175" s="4">
+        <v>1</v>
+      </c>
+      <c r="D175" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C176" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>8</v>
+      <c r="C176" s="4">
+        <v>2</v>
+      </c>
+      <c r="D176" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C177" s="4" t="s">
-        <v>48</v>
+      <c r="C177" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1583,11 +1588,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C33" xr:uid="{FBD0B983-5A40-6749-9536-D913B6675467}">
       <formula1>$B$175:$B$176</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E33" xr:uid="{510E2F11-5626-854D-8A38-FA7D5365DCB1}">
+      <formula1>$D$175:$D$176</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D33" xr:uid="{405F4144-D48E-E245-89FD-6D749A71572E}">
       <formula1>$C$175:$C$177</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E33" xr:uid="{510E2F11-5626-854D-8A38-FA7D5365DCB1}">
-      <formula1>$D$175:$D$176</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Лабораторная работа 5/Таблица требований.xlsx
+++ b/Лабораторная работа 5/Таблица требований.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/Университет/Программная инженерия/Лабораторная работа 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACAADF0-FF2C-EB42-B2AD-3A1C3CF89C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87FBAF8-33DF-624F-AA23-617E8C62E79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{BE9B1B26-4820-4D4C-B781-40DC7AFFABF3}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{BE9B1B26-4820-4D4C-B781-40DC7AFFABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,27 +179,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -487,95 +467,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -895,504 +878,504 @@
   <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="59" style="4" customWidth="1"/>
-    <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="9.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="21">
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6">
         <f>D2*E2</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F33" si="0">D3*E3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="2" t="s">
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="21">
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="E10" s="6">
-        <v>2</v>
-      </c>
-      <c r="F10" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="11">
         <v>3</v>
       </c>
-      <c r="E11" s="8">
-        <v>2</v>
-      </c>
-      <c r="F11" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="2" t="s">
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="2" t="s">
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="2" t="s">
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="2" t="s">
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="2" t="s">
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="2" t="s">
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="5" t="s">
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="8">
         <v>3</v>
       </c>
-      <c r="E19" s="6">
-        <v>2</v>
-      </c>
-      <c r="F19" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="2" t="s">
+      <c r="C20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
+      <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="2" t="s">
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="24"/>
+      <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="2" t="s">
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <v>3</v>
       </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="2" t="s">
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="24"/>
+      <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="5" t="s">
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2</v>
-      </c>
-      <c r="F25" s="22">
+      <c r="C25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2</v>
+      </c>
+      <c r="F25" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+    <row r="26" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -1407,172 +1390,172 @@
       <c r="E26" s="13">
         <v>2</v>
       </c>
-      <c r="F26" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+      <c r="F26" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1</v>
-      </c>
-      <c r="F27" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="14" t="s">
+      <c r="C27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-      <c r="F28" s="21">
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2</v>
+      </c>
+      <c r="F28" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+    <row r="29" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
       <c r="B29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="17">
         <v>3</v>
       </c>
-      <c r="E29" s="15">
-        <v>2</v>
-      </c>
-      <c r="F29" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+      <c r="E29" s="17">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="11">
         <v>3</v>
       </c>
-      <c r="E30" s="8">
-        <v>2</v>
-      </c>
-      <c r="F30" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="17" t="s">
+      <c r="E30" s="11">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="31"/>
+      <c r="B31" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="5">
         <v>3</v>
       </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
-      <c r="F31" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="17" t="s">
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="31"/>
+      <c r="B32" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
       <c r="B33" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="22">
+      <c r="C33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B175" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C175" s="4">
-        <v>1</v>
-      </c>
-      <c r="D175" s="4">
+      <c r="B175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="2">
+        <v>1</v>
+      </c>
+      <c r="D175" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C176" s="4">
-        <v>2</v>
-      </c>
-      <c r="D176" s="4">
+      <c r="C176" s="2">
+        <v>2</v>
+      </c>
+      <c r="D176" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C177" s="4">
+      <c r="C177" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1596,5 +1579,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>